--- a/public/marzo_2025.xlsx
+++ b/public/marzo_2025.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\marzo-lasa\marzo-lasa\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328AA110-7CF4-41C2-AD92-4CFEB370503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF8B020-D32F-4047-B90A-4C857F03410F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MES NORMAL" sheetId="1" r:id="rId1"/>
     <sheet name="VAC" sheetId="5" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MES NORMAL'!$A$3:$M$33</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="72">
   <si>
     <t>CUIL</t>
   </si>
@@ -742,7 +743,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,4 +3253,1258 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B921C03-5250-4AB3-994A-CACA9382033B}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H21" activeCellId="1" sqref="H23 H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1066206.1200000001</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>330395.52000000002</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G32" si="0">+D3+E3+F3</f>
+        <v>1396601.6400000001</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" ref="K3:K32" si="1">+G3+H3</f>
+        <v>1396601.6400000001</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1331577</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>418958.4</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>1750535.4</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="1"/>
+        <v>1750535.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1745510.3999999999</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>1745510.3999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>170952.57</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="1"/>
+        <v>1916462.97</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="10">
+        <v>936980</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>284428.48</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>1221408.48</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="1"/>
+        <v>1221408.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1605619.44</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>1605619.44</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="1"/>
+        <v>1605619.44</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>15</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1577949.48</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>1577949.48</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="1"/>
+        <v>1577949.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1366019.28</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>1366019.28</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="1"/>
+        <v>1366019.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>25</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10">
+        <v>973972.92</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>330395.52000000002</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>1304368.44</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="1"/>
+        <v>1304368.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="10">
+        <v>952202.88</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>330395.52000000002</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>1282598.3999999999</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="1"/>
+        <v>1282598.3999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="10">
+        <v>853970.12</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>284428.48</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>1138398.6000000001</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="1"/>
+        <v>1138398.6000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="10">
+        <v>879365.52</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>284428.48</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>1163794</v>
+      </c>
+      <c r="H13" s="10">
+        <v>123465.94</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="1"/>
+        <v>1287259.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>33</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1097765.96</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>1097765.96</v>
+      </c>
+      <c r="H14" s="10">
+        <v>170952.58</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="1"/>
+        <v>1268718.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1096156.19</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>1096156.19</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="1"/>
+        <v>1096156.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>37</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1144659.6000000001</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>1144659.6000000001</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="1"/>
+        <v>1144659.6000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>41</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1117736.52</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>1117736.52</v>
+      </c>
+      <c r="H17" s="10">
+        <v>18995.43</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="1"/>
+        <v>1136731.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>48</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1266840.3999999999</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>1266840.3999999999</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="1"/>
+        <v>1266840.3999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>55</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="10">
+        <v>868446.12</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>330395.52000000002</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>1198841.6400000001</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="1"/>
+        <v>1198841.6400000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>58</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="10">
+        <v>809318.32</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>809318.32</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="1"/>
+        <v>809318.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>62</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="10">
+        <v>803978.02</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>305154.64</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>1109132.6600000001</v>
+      </c>
+      <c r="H21" s="10">
+        <v>123465.8</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="1"/>
+        <v>1232598.4600000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>63</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1338143.1599999999</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>1338143.1599999999</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="1"/>
+        <v>1338143.1599999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>64</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1147396.24</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="0"/>
+        <v>1147396.24</v>
+      </c>
+      <c r="H23" s="10">
+        <v>123466.05</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="1"/>
+        <v>1270862.29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>65</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="10">
+        <v>915309.14</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="0"/>
+        <v>915309.14</v>
+      </c>
+      <c r="H24" s="10">
+        <v>56984.59</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="1"/>
+        <v>972293.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>66</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2700000</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="0"/>
+        <v>2700000</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="1"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>67</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3000000</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="1"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>68</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="10">
+        <v>895257.8</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="0"/>
+        <v>895257.8</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <f t="shared" si="1"/>
+        <v>895257.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>69</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="10">
+        <v>874941.48</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="0"/>
+        <v>874941.48</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="1"/>
+        <v>874941.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>70</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="10">
+        <v>696741.54</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="0"/>
+        <v>696741.54</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" si="1"/>
+        <v>696741.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>71</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="10">
+        <v>886034.48</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="0"/>
+        <v>886034.48</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="1"/>
+        <v>886034.48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>75</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="10">
+        <v>939359.75</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="0"/>
+        <v>939359.75</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="1"/>
+        <v>939359.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>76</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="10">
+        <v>858364.52</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="0"/>
+        <v>858364.52</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" si="1"/>
+        <v>858364.52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="10">
+        <f>SUM(D3:D32)</f>
+        <v>35745822.399999999</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <f>SUM(F3:F32)</f>
+        <v>2898980.56</v>
+      </c>
+      <c r="G33" s="15">
+        <f>SUM(G3:G32)</f>
+        <v>38644802.959999993</v>
+      </c>
+      <c r="H33" s="10">
+        <f>SUM(H3:H32)</f>
+        <v>788282.96</v>
+      </c>
+      <c r="I33" s="14">
+        <f>SUM(I3:I32)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <f>SUM(K3:K32)</f>
+        <v>39433085.919999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>